--- a/experiments/pg/return_discount_increment/mlp_3x182_no_max_prefix_time_no_clip_grad_step_3e_4_norm_time/oracle_buffer.xlsx
+++ b/experiments/pg/return_discount_increment/mlp_3x182_no_max_prefix_time_no_clip_grad_step_3e_4_norm_time/oracle_buffer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2778"/>
+  <dimension ref="A1:C2937"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36546,6 +36546,2073 @@
         <v>14.50895461037313</v>
       </c>
     </row>
+    <row r="2779">
+      <c r="A2779" s="1" t="n">
+        <v>2777</v>
+      </c>
+      <c r="B2779" t="inlineStr">
+        <is>
+          <t>[4, -5, -3]</t>
+        </is>
+      </c>
+      <c r="C2779" t="n">
+        <v>13.99369160540953</v>
+      </c>
+    </row>
+    <row r="2780">
+      <c r="A2780" s="1" t="n">
+        <v>2778</v>
+      </c>
+      <c r="B2780" t="inlineStr">
+        <is>
+          <t>[5, -5, -3]</t>
+        </is>
+      </c>
+      <c r="C2780" t="n">
+        <v>13.97024667476115</v>
+      </c>
+    </row>
+    <row r="2781">
+      <c r="A2781" s="1" t="n">
+        <v>2779</v>
+      </c>
+      <c r="B2781" t="inlineStr">
+        <is>
+          <t>[5, -4, -3]</t>
+        </is>
+      </c>
+      <c r="C2781" t="n">
+        <v>14.00212822797506</v>
+      </c>
+    </row>
+    <row r="2782">
+      <c r="A2782" s="1" t="n">
+        <v>2780</v>
+      </c>
+      <c r="B2782" t="inlineStr">
+        <is>
+          <t>[5, -2, -6]</t>
+        </is>
+      </c>
+      <c r="C2782" t="n">
+        <v>13.98774611937903</v>
+      </c>
+    </row>
+    <row r="2783">
+      <c r="A2783" s="1" t="n">
+        <v>2781</v>
+      </c>
+      <c r="B2783" t="inlineStr">
+        <is>
+          <t>[5, -3, -7]</t>
+        </is>
+      </c>
+      <c r="C2783" t="n">
+        <v>13.95986301815931</v>
+      </c>
+    </row>
+    <row r="2784">
+      <c r="A2784" s="1" t="n">
+        <v>2782</v>
+      </c>
+      <c r="B2784" t="inlineStr">
+        <is>
+          <t>[-4, 4, -2]</t>
+        </is>
+      </c>
+      <c r="C2784" t="n">
+        <v>14.04939733682542</v>
+      </c>
+    </row>
+    <row r="2785">
+      <c r="A2785" s="1" t="n">
+        <v>2783</v>
+      </c>
+      <c r="B2785" t="inlineStr">
+        <is>
+          <t>[-4, 6, -3]</t>
+        </is>
+      </c>
+      <c r="C2785" t="n">
+        <v>13.98859484364346</v>
+      </c>
+    </row>
+    <row r="2786">
+      <c r="A2786" s="1" t="n">
+        <v>2784</v>
+      </c>
+      <c r="B2786" t="inlineStr">
+        <is>
+          <t>[0, 4, -7]</t>
+        </is>
+      </c>
+      <c r="C2786" t="n">
+        <v>15.28838182738543</v>
+      </c>
+    </row>
+    <row r="2787">
+      <c r="A2787" s="1" t="n">
+        <v>2785</v>
+      </c>
+      <c r="B2787" t="inlineStr">
+        <is>
+          <t>[-4, 5, -2]</t>
+        </is>
+      </c>
+      <c r="C2787" t="n">
+        <v>14.04246934394526</v>
+      </c>
+    </row>
+    <row r="2788">
+      <c r="A2788" s="1" t="n">
+        <v>2786</v>
+      </c>
+      <c r="B2788" t="inlineStr">
+        <is>
+          <t>[-4, 7, -3]</t>
+        </is>
+      </c>
+      <c r="C2788" t="n">
+        <v>13.99121376662075</v>
+      </c>
+    </row>
+    <row r="2789">
+      <c r="A2789" s="1" t="n">
+        <v>2787</v>
+      </c>
+      <c r="B2789" t="inlineStr">
+        <is>
+          <t>[4, -4, -1]</t>
+        </is>
+      </c>
+      <c r="C2789" t="n">
+        <v>14.16528305335981</v>
+      </c>
+    </row>
+    <row r="2790">
+      <c r="A2790" s="1" t="n">
+        <v>2788</v>
+      </c>
+      <c r="B2790" t="inlineStr">
+        <is>
+          <t>[5, -4, -4]</t>
+        </is>
+      </c>
+      <c r="C2790" t="n">
+        <v>13.95555706795052</v>
+      </c>
+    </row>
+    <row r="2791">
+      <c r="A2791" s="1" t="n">
+        <v>2789</v>
+      </c>
+      <c r="B2791" t="inlineStr">
+        <is>
+          <t>[5, -2, -5]</t>
+        </is>
+      </c>
+      <c r="C2791" t="n">
+        <v>14.00040913003415</v>
+      </c>
+    </row>
+    <row r="2792">
+      <c r="A2792" s="1" t="n">
+        <v>2790</v>
+      </c>
+      <c r="B2792" t="inlineStr">
+        <is>
+          <t>[6, -2, -5]</t>
+        </is>
+      </c>
+      <c r="C2792" t="n">
+        <v>14.09413295267608</v>
+      </c>
+    </row>
+    <row r="2793">
+      <c r="A2793" s="1" t="n">
+        <v>2791</v>
+      </c>
+      <c r="B2793" t="inlineStr">
+        <is>
+          <t>[-1, 6, -3]</t>
+        </is>
+      </c>
+      <c r="C2793" t="n">
+        <v>15.00815456988142</v>
+      </c>
+    </row>
+    <row r="2794">
+      <c r="A2794" s="1" t="n">
+        <v>2792</v>
+      </c>
+      <c r="B2794" t="inlineStr">
+        <is>
+          <t>[5, -3, -4]</t>
+        </is>
+      </c>
+      <c r="C2794" t="n">
+        <v>14.00212822686848</v>
+      </c>
+    </row>
+    <row r="2795">
+      <c r="A2795" s="1" t="n">
+        <v>2793</v>
+      </c>
+      <c r="B2795" t="inlineStr">
+        <is>
+          <t>[4, -1, -4]</t>
+        </is>
+      </c>
+      <c r="C2795" t="n">
+        <v>14.16528305328707</v>
+      </c>
+    </row>
+    <row r="2796">
+      <c r="A2796" s="1" t="n">
+        <v>2794</v>
+      </c>
+      <c r="B2796" t="inlineStr">
+        <is>
+          <t>[6, -4, -5]</t>
+        </is>
+      </c>
+      <c r="C2796" t="n">
+        <v>14.02228381552816</v>
+      </c>
+    </row>
+    <row r="2797">
+      <c r="A2797" s="1" t="n">
+        <v>2795</v>
+      </c>
+      <c r="B2797" t="inlineStr">
+        <is>
+          <t>[5, -3, -6]</t>
+        </is>
+      </c>
+      <c r="C2797" t="n">
+        <v>13.96187768467742</v>
+      </c>
+    </row>
+    <row r="2798">
+      <c r="A2798" s="1" t="n">
+        <v>2796</v>
+      </c>
+      <c r="B2798" t="inlineStr">
+        <is>
+          <t>[4, -3, -5]</t>
+        </is>
+      </c>
+      <c r="C2798" t="n">
+        <v>13.99369160547836</v>
+      </c>
+    </row>
+    <row r="2799">
+      <c r="A2799" s="1" t="n">
+        <v>2797</v>
+      </c>
+      <c r="B2799" t="inlineStr">
+        <is>
+          <t>[5, -3, -5]</t>
+        </is>
+      </c>
+      <c r="C2799" t="n">
+        <v>13.97024667469926</v>
+      </c>
+    </row>
+    <row r="2800">
+      <c r="A2800" s="1" t="n">
+        <v>2798</v>
+      </c>
+      <c r="B2800" t="inlineStr">
+        <is>
+          <t>[5, -5, -6]</t>
+        </is>
+      </c>
+      <c r="C2800" t="n">
+        <v>13.95950745001665</v>
+      </c>
+    </row>
+    <row r="2801">
+      <c r="A2801" s="1" t="n">
+        <v>2799</v>
+      </c>
+      <c r="B2801" t="inlineStr">
+        <is>
+          <t>[5, 0, -5]</t>
+        </is>
+      </c>
+      <c r="C2801" t="n">
+        <v>14.10632948362277</v>
+      </c>
+    </row>
+    <row r="2802">
+      <c r="A2802" s="1" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B2802" t="inlineStr">
+        <is>
+          <t>[5, -4, -6]</t>
+        </is>
+      </c>
+      <c r="C2802" t="n">
+        <v>13.96082723084994</v>
+      </c>
+    </row>
+    <row r="2803">
+      <c r="A2803" s="1" t="n">
+        <v>2801</v>
+      </c>
+      <c r="B2803" t="inlineStr">
+        <is>
+          <t>[4, 5, -6]</t>
+        </is>
+      </c>
+      <c r="C2803" t="n">
+        <v>14.06809187190164</v>
+      </c>
+    </row>
+    <row r="2804">
+      <c r="A2804" s="1" t="n">
+        <v>2802</v>
+      </c>
+      <c r="B2804" t="inlineStr">
+        <is>
+          <t>[-2, 6, -2]</t>
+        </is>
+      </c>
+      <c r="C2804" t="n">
+        <v>14.57008610207517</v>
+      </c>
+    </row>
+    <row r="2805">
+      <c r="A2805" s="1" t="n">
+        <v>2803</v>
+      </c>
+      <c r="B2805" t="inlineStr">
+        <is>
+          <t>[-3, 7, -2]</t>
+        </is>
+      </c>
+      <c r="C2805" t="n">
+        <v>14.2183361253155</v>
+      </c>
+    </row>
+    <row r="2806">
+      <c r="A2806" s="1" t="n">
+        <v>2804</v>
+      </c>
+      <c r="B2806" t="inlineStr">
+        <is>
+          <t>[5, 0, -6]</t>
+        </is>
+      </c>
+      <c r="C2806" t="n">
+        <v>14.11569276259372</v>
+      </c>
+    </row>
+    <row r="2807">
+      <c r="A2807" s="1" t="n">
+        <v>2805</v>
+      </c>
+      <c r="B2807" t="inlineStr">
+        <is>
+          <t>[6, 0, -7]</t>
+        </is>
+      </c>
+      <c r="C2807" t="n">
+        <v>14.66662159879057</v>
+      </c>
+    </row>
+    <row r="2808">
+      <c r="A2808" s="1" t="n">
+        <v>2806</v>
+      </c>
+      <c r="B2808" t="inlineStr">
+        <is>
+          <t>[5, 1, -7]</t>
+        </is>
+      </c>
+      <c r="C2808" t="n">
+        <v>14.08437458298669</v>
+      </c>
+    </row>
+    <row r="2809">
+      <c r="A2809" s="1" t="n">
+        <v>2807</v>
+      </c>
+      <c r="B2809" t="inlineStr">
+        <is>
+          <t>[6, 1, -7]</t>
+        </is>
+      </c>
+      <c r="C2809" t="n">
+        <v>14.37086333482068</v>
+      </c>
+    </row>
+    <row r="2810">
+      <c r="A2810" s="1" t="n">
+        <v>2808</v>
+      </c>
+      <c r="B2810" t="inlineStr">
+        <is>
+          <t>[7, 1, -7]</t>
+        </is>
+      </c>
+      <c r="C2810" t="n">
+        <v>14.57766444265052</v>
+      </c>
+    </row>
+    <row r="2811">
+      <c r="A2811" s="1" t="n">
+        <v>2809</v>
+      </c>
+      <c r="B2811" t="inlineStr">
+        <is>
+          <t>[7, 0, -7]</t>
+        </is>
+      </c>
+      <c r="C2811" t="n">
+        <v>14.74380586975901</v>
+      </c>
+    </row>
+    <row r="2812">
+      <c r="A2812" s="1" t="n">
+        <v>2810</v>
+      </c>
+      <c r="B2812" t="inlineStr">
+        <is>
+          <t>[5, -5, -4]</t>
+        </is>
+      </c>
+      <c r="C2812" t="n">
+        <v>13.96745196758934</v>
+      </c>
+    </row>
+    <row r="2813">
+      <c r="A2813" s="1" t="n">
+        <v>2811</v>
+      </c>
+      <c r="B2813" t="inlineStr">
+        <is>
+          <t>[6, -5, -4]</t>
+        </is>
+      </c>
+      <c r="C2813" t="n">
+        <v>14.02228381748628</v>
+      </c>
+    </row>
+    <row r="2814">
+      <c r="A2814" s="1" t="n">
+        <v>2812</v>
+      </c>
+      <c r="B2814" t="inlineStr">
+        <is>
+          <t>[5, 1, -5]</t>
+        </is>
+      </c>
+      <c r="C2814" t="n">
+        <v>14.07814439931151</v>
+      </c>
+    </row>
+    <row r="2815">
+      <c r="A2815" s="1" t="n">
+        <v>2813</v>
+      </c>
+      <c r="B2815" t="inlineStr">
+        <is>
+          <t>[6, 0, -5]</t>
+        </is>
+      </c>
+      <c r="C2815" t="n">
+        <v>14.66740523857211</v>
+      </c>
+    </row>
+    <row r="2816">
+      <c r="A2816" s="1" t="n">
+        <v>2814</v>
+      </c>
+      <c r="B2816" t="inlineStr">
+        <is>
+          <t>[5, -1, -7]</t>
+        </is>
+      </c>
+      <c r="C2816" t="n">
+        <v>14.12461334989525</v>
+      </c>
+    </row>
+    <row r="2817">
+      <c r="A2817" s="1" t="n">
+        <v>2815</v>
+      </c>
+      <c r="B2817" t="inlineStr">
+        <is>
+          <t>[6, -1, -7]</t>
+        </is>
+      </c>
+      <c r="C2817" t="n">
+        <v>14.35013278480918</v>
+      </c>
+    </row>
+    <row r="2818">
+      <c r="A2818" s="1" t="n">
+        <v>2816</v>
+      </c>
+      <c r="B2818" t="inlineStr">
+        <is>
+          <t>[7, -1, -7]</t>
+        </is>
+      </c>
+      <c r="C2818" t="n">
+        <v>14.32892505973665</v>
+      </c>
+    </row>
+    <row r="2819">
+      <c r="A2819" s="1" t="n">
+        <v>2817</v>
+      </c>
+      <c r="B2819" t="inlineStr">
+        <is>
+          <t>[1, 6, -5]</t>
+        </is>
+      </c>
+      <c r="C2819" t="n">
+        <v>15.16302322951543</v>
+      </c>
+    </row>
+    <row r="2820">
+      <c r="A2820" s="1" t="n">
+        <v>2818</v>
+      </c>
+      <c r="B2820" t="inlineStr">
+        <is>
+          <t>[-1, 7, -3]</t>
+        </is>
+      </c>
+      <c r="C2820" t="n">
+        <v>15.02363705922543</v>
+      </c>
+    </row>
+    <row r="2821">
+      <c r="A2821" s="1" t="n">
+        <v>2819</v>
+      </c>
+      <c r="B2821" t="inlineStr">
+        <is>
+          <t>[-1, 6, -2]</t>
+        </is>
+      </c>
+      <c r="C2821" t="n">
+        <v>15.17510743172119</v>
+      </c>
+    </row>
+    <row r="2822">
+      <c r="A2822" s="1" t="n">
+        <v>2820</v>
+      </c>
+      <c r="B2822" t="inlineStr">
+        <is>
+          <t>[6, 0, -6]</t>
+        </is>
+      </c>
+      <c r="C2822" t="n">
+        <v>14.6688136756491</v>
+      </c>
+    </row>
+    <row r="2823">
+      <c r="A2823" s="1" t="n">
+        <v>2821</v>
+      </c>
+      <c r="B2823" t="inlineStr">
+        <is>
+          <t>[1, 4, -7]</t>
+        </is>
+      </c>
+      <c r="C2823" t="n">
+        <v>15.19139054011312</v>
+      </c>
+    </row>
+    <row r="2824">
+      <c r="A2824" s="1" t="n">
+        <v>2822</v>
+      </c>
+      <c r="B2824" t="inlineStr">
+        <is>
+          <t>[1, 5, -7]</t>
+        </is>
+      </c>
+      <c r="C2824" t="n">
+        <v>15.15443983801852</v>
+      </c>
+    </row>
+    <row r="2825">
+      <c r="A2825" s="1" t="n">
+        <v>2823</v>
+      </c>
+      <c r="B2825" t="inlineStr">
+        <is>
+          <t>[1, 6, -7]</t>
+        </is>
+      </c>
+      <c r="C2825" t="n">
+        <v>15.15049955515862</v>
+      </c>
+    </row>
+    <row r="2826">
+      <c r="A2826" s="1" t="n">
+        <v>2824</v>
+      </c>
+      <c r="B2826" t="inlineStr">
+        <is>
+          <t>[6, -3, -5]</t>
+        </is>
+      </c>
+      <c r="C2826" t="n">
+        <v>14.03035003061337</v>
+      </c>
+    </row>
+    <row r="2827">
+      <c r="A2827" s="1" t="n">
+        <v>2825</v>
+      </c>
+      <c r="B2827" t="inlineStr">
+        <is>
+          <t>[7, -3, -5]</t>
+        </is>
+      </c>
+      <c r="C2827" t="n">
+        <v>14.02620450139292</v>
+      </c>
+    </row>
+    <row r="2828">
+      <c r="A2828" s="1" t="n">
+        <v>2826</v>
+      </c>
+      <c r="B2828" t="inlineStr">
+        <is>
+          <t>[5, -1, -6]</t>
+        </is>
+      </c>
+      <c r="C2828" t="n">
+        <v>14.13337475976279</v>
+      </c>
+    </row>
+    <row r="2829">
+      <c r="A2829" s="1" t="n">
+        <v>2827</v>
+      </c>
+      <c r="B2829" t="inlineStr">
+        <is>
+          <t>[0, 7, -6]</t>
+        </is>
+      </c>
+      <c r="C2829" t="n">
+        <v>15.32150224187155</v>
+      </c>
+    </row>
+    <row r="2830">
+      <c r="A2830" s="1" t="n">
+        <v>2828</v>
+      </c>
+      <c r="B2830" t="inlineStr">
+        <is>
+          <t>[1, 7, -5]</t>
+        </is>
+      </c>
+      <c r="C2830" t="n">
+        <v>15.17628761141488</v>
+      </c>
+    </row>
+    <row r="2831">
+      <c r="A2831" s="1" t="n">
+        <v>2829</v>
+      </c>
+      <c r="B2831" t="inlineStr">
+        <is>
+          <t>[5, 2, -7]</t>
+        </is>
+      </c>
+      <c r="C2831" t="n">
+        <v>14.10198163032304</v>
+      </c>
+    </row>
+    <row r="2832">
+      <c r="A2832" s="1" t="n">
+        <v>2830</v>
+      </c>
+      <c r="B2832" t="inlineStr">
+        <is>
+          <t>[3, 6, -6]</t>
+        </is>
+      </c>
+      <c r="C2832" t="n">
+        <v>14.23793371700434</v>
+      </c>
+    </row>
+    <row r="2833">
+      <c r="A2833" s="1" t="n">
+        <v>2831</v>
+      </c>
+      <c r="B2833" t="inlineStr">
+        <is>
+          <t>[3, 7, -6]</t>
+        </is>
+      </c>
+      <c r="C2833" t="n">
+        <v>14.21499387134491</v>
+      </c>
+    </row>
+    <row r="2834">
+      <c r="A2834" s="1" t="n">
+        <v>2832</v>
+      </c>
+      <c r="B2834" t="inlineStr">
+        <is>
+          <t>[2, 6, -7]</t>
+        </is>
+      </c>
+      <c r="C2834" t="n">
+        <v>14.66548129611888</v>
+      </c>
+    </row>
+    <row r="2835">
+      <c r="A2835" s="1" t="n">
+        <v>2833</v>
+      </c>
+      <c r="B2835" t="inlineStr">
+        <is>
+          <t>[6, -1, -5]</t>
+        </is>
+      </c>
+      <c r="C2835" t="n">
+        <v>14.3577246188826</v>
+      </c>
+    </row>
+    <row r="2836">
+      <c r="A2836" s="1" t="n">
+        <v>2834</v>
+      </c>
+      <c r="B2836" t="inlineStr">
+        <is>
+          <t>[7, -2, -5]</t>
+        </is>
+      </c>
+      <c r="C2836" t="n">
+        <v>14.08510830350913</v>
+      </c>
+    </row>
+    <row r="2837">
+      <c r="A2837" s="1" t="n">
+        <v>2835</v>
+      </c>
+      <c r="B2837" t="inlineStr">
+        <is>
+          <t>[4, 4, -5]</t>
+        </is>
+      </c>
+      <c r="C2837" t="n">
+        <v>13.98519427125593</v>
+      </c>
+    </row>
+    <row r="2838">
+      <c r="A2838" s="1" t="n">
+        <v>2836</v>
+      </c>
+      <c r="B2838" t="inlineStr">
+        <is>
+          <t>[4, 5, -5]</t>
+        </is>
+      </c>
+      <c r="C2838" t="n">
+        <v>14.06811448478559</v>
+      </c>
+    </row>
+    <row r="2839">
+      <c r="A2839" s="1" t="n">
+        <v>2837</v>
+      </c>
+      <c r="B2839" t="inlineStr">
+        <is>
+          <t>[-2, 7, -2]</t>
+        </is>
+      </c>
+      <c r="C2839" t="n">
+        <v>14.57204565445071</v>
+      </c>
+    </row>
+    <row r="2840">
+      <c r="A2840" s="1" t="n">
+        <v>2838</v>
+      </c>
+      <c r="B2840" t="inlineStr">
+        <is>
+          <t>[6, -2, -4]</t>
+        </is>
+      </c>
+      <c r="C2840" t="n">
+        <v>14.18787456766051</v>
+      </c>
+    </row>
+    <row r="2841">
+      <c r="A2841" s="1" t="n">
+        <v>2839</v>
+      </c>
+      <c r="B2841" t="inlineStr">
+        <is>
+          <t>[7, -2, -4]</t>
+        </is>
+      </c>
+      <c r="C2841" t="n">
+        <v>14.16188233000662</v>
+      </c>
+    </row>
+    <row r="2842">
+      <c r="A2842" s="1" t="n">
+        <v>2840</v>
+      </c>
+      <c r="B2842" t="inlineStr">
+        <is>
+          <t>[5, 0, -3]</t>
+        </is>
+      </c>
+      <c r="C2842" t="n">
+        <v>14.11954500208764</v>
+      </c>
+    </row>
+    <row r="2843">
+      <c r="A2843" s="1" t="n">
+        <v>2841</v>
+      </c>
+      <c r="B2843" t="inlineStr">
+        <is>
+          <t>[1, 6, -6]</t>
+        </is>
+      </c>
+      <c r="C2843" t="n">
+        <v>15.16379453362553</v>
+      </c>
+    </row>
+    <row r="2844">
+      <c r="A2844" s="1" t="n">
+        <v>2842</v>
+      </c>
+      <c r="B2844" t="inlineStr">
+        <is>
+          <t>[1, 7, -6]</t>
+        </is>
+      </c>
+      <c r="C2844" t="n">
+        <v>15.17868816220568</v>
+      </c>
+    </row>
+    <row r="2845">
+      <c r="A2845" s="1" t="n">
+        <v>2843</v>
+      </c>
+      <c r="B2845" t="inlineStr">
+        <is>
+          <t>[-1, 7, -2]</t>
+        </is>
+      </c>
+      <c r="C2845" t="n">
+        <v>15.19085852436401</v>
+      </c>
+    </row>
+    <row r="2846">
+      <c r="A2846" s="1" t="n">
+        <v>2844</v>
+      </c>
+      <c r="B2846" t="inlineStr">
+        <is>
+          <t>[-1, 7, -1]</t>
+        </is>
+      </c>
+      <c r="C2846" t="n">
+        <v>16.83064044831413</v>
+      </c>
+    </row>
+    <row r="2847">
+      <c r="A2847" s="1" t="n">
+        <v>2845</v>
+      </c>
+      <c r="B2847" t="inlineStr">
+        <is>
+          <t>[-1, 6, -1]</t>
+        </is>
+      </c>
+      <c r="C2847" t="n">
+        <v>16.80550779601159</v>
+      </c>
+    </row>
+    <row r="2848">
+      <c r="A2848" s="1" t="n">
+        <v>2846</v>
+      </c>
+      <c r="B2848" t="inlineStr">
+        <is>
+          <t>[-3, 5, 0]</t>
+        </is>
+      </c>
+      <c r="C2848" t="n">
+        <v>15.88375106211675</v>
+      </c>
+    </row>
+    <row r="2849">
+      <c r="A2849" s="1" t="n">
+        <v>2847</v>
+      </c>
+      <c r="B2849" t="inlineStr">
+        <is>
+          <t>[6, -3, -4]</t>
+        </is>
+      </c>
+      <c r="C2849" t="n">
+        <v>14.08540986217404</v>
+      </c>
+    </row>
+    <row r="2850">
+      <c r="A2850" s="1" t="n">
+        <v>2848</v>
+      </c>
+      <c r="B2850" t="inlineStr">
+        <is>
+          <t>[5, -3, -3]</t>
+        </is>
+      </c>
+      <c r="C2850" t="n">
+        <v>13.95785638174164</v>
+      </c>
+    </row>
+    <row r="2851">
+      <c r="A2851" s="1" t="n">
+        <v>2849</v>
+      </c>
+      <c r="B2851" t="inlineStr">
+        <is>
+          <t>[1, 7, -4]</t>
+        </is>
+      </c>
+      <c r="C2851" t="n">
+        <v>15.17707098216581</v>
+      </c>
+    </row>
+    <row r="2852">
+      <c r="A2852" s="1" t="n">
+        <v>2850</v>
+      </c>
+      <c r="B2852" t="inlineStr">
+        <is>
+          <t>[-1, 6, 0]</t>
+        </is>
+      </c>
+      <c r="C2852" t="n">
+        <v>21.24178453439206</v>
+      </c>
+    </row>
+    <row r="2853">
+      <c r="A2853" s="1" t="n">
+        <v>2851</v>
+      </c>
+      <c r="B2853" t="inlineStr">
+        <is>
+          <t>[-2, 6, -1]</t>
+        </is>
+      </c>
+      <c r="C2853" t="n">
+        <v>15.80533435864044</v>
+      </c>
+    </row>
+    <row r="2854">
+      <c r="A2854" s="1" t="n">
+        <v>2852</v>
+      </c>
+      <c r="B2854" t="inlineStr">
+        <is>
+          <t>[6, -1, -4]</t>
+        </is>
+      </c>
+      <c r="C2854" t="n">
+        <v>14.43407948861918</v>
+      </c>
+    </row>
+    <row r="2855">
+      <c r="A2855" s="1" t="n">
+        <v>2853</v>
+      </c>
+      <c r="B2855" t="inlineStr">
+        <is>
+          <t>[5, -1, -3]</t>
+        </is>
+      </c>
+      <c r="C2855" t="n">
+        <v>14.2327030048365</v>
+      </c>
+    </row>
+    <row r="2856">
+      <c r="A2856" s="1" t="n">
+        <v>2854</v>
+      </c>
+      <c r="B2856" t="inlineStr">
+        <is>
+          <t>[6, 0, -3]</t>
+        </is>
+      </c>
+      <c r="C2856" t="n">
+        <v>14.68941130582639</v>
+      </c>
+    </row>
+    <row r="2857">
+      <c r="A2857" s="1" t="n">
+        <v>2855</v>
+      </c>
+      <c r="B2857" t="inlineStr">
+        <is>
+          <t>[-2, 7, -1]</t>
+        </is>
+      </c>
+      <c r="C2857" t="n">
+        <v>15.81676011601186</v>
+      </c>
+    </row>
+    <row r="2858">
+      <c r="A2858" s="1" t="n">
+        <v>2856</v>
+      </c>
+      <c r="B2858" t="inlineStr">
+        <is>
+          <t>[3, 6, -5]</t>
+        </is>
+      </c>
+      <c r="C2858" t="n">
+        <v>14.2408350168762</v>
+      </c>
+    </row>
+    <row r="2859">
+      <c r="A2859" s="1" t="n">
+        <v>2857</v>
+      </c>
+      <c r="B2859" t="inlineStr">
+        <is>
+          <t>[6, -3, -3]</t>
+        </is>
+      </c>
+      <c r="C2859" t="n">
+        <v>14.00080004512053</v>
+      </c>
+    </row>
+    <row r="2860">
+      <c r="A2860" s="1" t="n">
+        <v>2858</v>
+      </c>
+      <c r="B2860" t="inlineStr">
+        <is>
+          <t>[5, 2, -6]</t>
+        </is>
+      </c>
+      <c r="C2860" t="n">
+        <v>14.10379931730464</v>
+      </c>
+    </row>
+    <row r="2861">
+      <c r="A2861" s="1" t="n">
+        <v>2859</v>
+      </c>
+      <c r="B2861" t="inlineStr">
+        <is>
+          <t>[0, 7, -2]</t>
+        </is>
+      </c>
+      <c r="C2861" t="n">
+        <v>15.88159562444467</v>
+      </c>
+    </row>
+    <row r="2862">
+      <c r="A2862" s="1" t="n">
+        <v>2860</v>
+      </c>
+      <c r="B2862" t="inlineStr">
+        <is>
+          <t>[6, 0, -4]</t>
+        </is>
+      </c>
+      <c r="C2862" t="n">
+        <v>14.66958949720345</v>
+      </c>
+    </row>
+    <row r="2863">
+      <c r="A2863" s="1" t="n">
+        <v>2861</v>
+      </c>
+      <c r="B2863" t="inlineStr">
+        <is>
+          <t>[2, 7, -5]</t>
+        </is>
+      </c>
+      <c r="C2863" t="n">
+        <v>14.69425127559172</v>
+      </c>
+    </row>
+    <row r="2864">
+      <c r="A2864" s="1" t="n">
+        <v>2862</v>
+      </c>
+      <c r="B2864" t="inlineStr">
+        <is>
+          <t>[6, 1, -4]</t>
+        </is>
+      </c>
+      <c r="C2864" t="n">
+        <v>14.36361946396208</v>
+      </c>
+    </row>
+    <row r="2865">
+      <c r="A2865" s="1" t="n">
+        <v>2863</v>
+      </c>
+      <c r="B2865" t="inlineStr">
+        <is>
+          <t>[7, -1, -4]</t>
+        </is>
+      </c>
+      <c r="C2865" t="n">
+        <v>14.40713168728751</v>
+      </c>
+    </row>
+    <row r="2866">
+      <c r="A2866" s="1" t="n">
+        <v>2864</v>
+      </c>
+      <c r="B2866" t="inlineStr">
+        <is>
+          <t>[2, 7, -4]</t>
+        </is>
+      </c>
+      <c r="C2866" t="n">
+        <v>14.69712175296823</v>
+      </c>
+    </row>
+    <row r="2867">
+      <c r="A2867" s="1" t="n">
+        <v>2865</v>
+      </c>
+      <c r="B2867" t="inlineStr">
+        <is>
+          <t>[4, -3, -2]</t>
+        </is>
+      </c>
+      <c r="C2867" t="n">
+        <v>14.14260101842176</v>
+      </c>
+    </row>
+    <row r="2868">
+      <c r="A2868" s="1" t="n">
+        <v>2866</v>
+      </c>
+      <c r="B2868" t="inlineStr">
+        <is>
+          <t>[-3, 7, -1]</t>
+        </is>
+      </c>
+      <c r="C2868" t="n">
+        <v>15.0234980867592</v>
+      </c>
+    </row>
+    <row r="2869">
+      <c r="A2869" s="1" t="n">
+        <v>2867</v>
+      </c>
+      <c r="B2869" t="inlineStr">
+        <is>
+          <t>[6, -2, -6]</t>
+        </is>
+      </c>
+      <c r="C2869" t="n">
+        <v>14.07119432658514</v>
+      </c>
+    </row>
+    <row r="2870">
+      <c r="A2870" s="1" t="n">
+        <v>2868</v>
+      </c>
+      <c r="B2870" t="inlineStr">
+        <is>
+          <t>[6, -1, -6]</t>
+        </is>
+      </c>
+      <c r="C2870" t="n">
+        <v>14.35937706816247</v>
+      </c>
+    </row>
+    <row r="2871">
+      <c r="A2871" s="1" t="n">
+        <v>2869</v>
+      </c>
+      <c r="B2871" t="inlineStr">
+        <is>
+          <t>[7, -3, -4]</t>
+        </is>
+      </c>
+      <c r="C2871" t="n">
+        <v>14.07516508703968</v>
+      </c>
+    </row>
+    <row r="2872">
+      <c r="A2872" s="1" t="n">
+        <v>2870</v>
+      </c>
+      <c r="B2872" t="inlineStr">
+        <is>
+          <t>[5, 7, -1]</t>
+        </is>
+      </c>
+      <c r="C2872" t="n">
+        <v>14.20636515338192</v>
+      </c>
+    </row>
+    <row r="2873">
+      <c r="A2873" s="1" t="n">
+        <v>2871</v>
+      </c>
+      <c r="B2873" t="inlineStr">
+        <is>
+          <t>[0, 7, -1]</t>
+        </is>
+      </c>
+      <c r="C2873" t="n">
+        <v>18.2385234862152</v>
+      </c>
+    </row>
+    <row r="2874">
+      <c r="A2874" s="1" t="n">
+        <v>2872</v>
+      </c>
+      <c r="B2874" t="inlineStr">
+        <is>
+          <t>[3, 7, -2]</t>
+        </is>
+      </c>
+      <c r="C2874" t="n">
+        <v>14.43950852787724</v>
+      </c>
+    </row>
+    <row r="2875">
+      <c r="A2875" s="1" t="n">
+        <v>2873</v>
+      </c>
+      <c r="B2875" t="inlineStr">
+        <is>
+          <t>[4, -4, -2]</t>
+        </is>
+      </c>
+      <c r="C2875" t="n">
+        <v>14.06863220302833</v>
+      </c>
+    </row>
+    <row r="2876">
+      <c r="A2876" s="1" t="n">
+        <v>2874</v>
+      </c>
+      <c r="B2876" t="inlineStr">
+        <is>
+          <t>[5, -5, -5]</t>
+        </is>
+      </c>
+      <c r="C2876" t="n">
+        <v>13.95589082517432</v>
+      </c>
+    </row>
+    <row r="2877">
+      <c r="A2877" s="1" t="n">
+        <v>2875</v>
+      </c>
+      <c r="B2877" t="inlineStr">
+        <is>
+          <t>[6, -5, -5]</t>
+        </is>
+      </c>
+      <c r="C2877" t="n">
+        <v>14.0010966900054</v>
+      </c>
+    </row>
+    <row r="2878">
+      <c r="A2878" s="1" t="n">
+        <v>2876</v>
+      </c>
+      <c r="B2878" t="inlineStr">
+        <is>
+          <t>[4, -6, -2]</t>
+        </is>
+      </c>
+      <c r="C2878" t="n">
+        <v>14.01365890002754</v>
+      </c>
+    </row>
+    <row r="2879">
+      <c r="A2879" s="1" t="n">
+        <v>2877</v>
+      </c>
+      <c r="B2879" t="inlineStr">
+        <is>
+          <t>[4, -5, -2]</t>
+        </is>
+      </c>
+      <c r="C2879" t="n">
+        <v>14.02764852668737</v>
+      </c>
+    </row>
+    <row r="2880">
+      <c r="A2880" s="1" t="n">
+        <v>2878</v>
+      </c>
+      <c r="B2880" t="inlineStr">
+        <is>
+          <t>[6, -5, -3]</t>
+        </is>
+      </c>
+      <c r="C2880" t="n">
+        <v>14.03035003065552</v>
+      </c>
+    </row>
+    <row r="2881">
+      <c r="A2881" s="1" t="n">
+        <v>2879</v>
+      </c>
+      <c r="B2881" t="inlineStr">
+        <is>
+          <t>[5, -4, -2]</t>
+        </is>
+      </c>
+      <c r="C2881" t="n">
+        <v>14.06281506455202</v>
+      </c>
+    </row>
+    <row r="2882">
+      <c r="A2882" s="1" t="n">
+        <v>2880</v>
+      </c>
+      <c r="B2882" t="inlineStr">
+        <is>
+          <t>[4, -6, -3]</t>
+        </is>
+      </c>
+      <c r="C2882" t="n">
+        <v>13.98391985512457</v>
+      </c>
+    </row>
+    <row r="2883">
+      <c r="A2883" s="1" t="n">
+        <v>2881</v>
+      </c>
+      <c r="B2883" t="inlineStr">
+        <is>
+          <t>[6, -4, -3]</t>
+        </is>
+      </c>
+      <c r="C2883" t="n">
+        <v>14.08540980979691</v>
+      </c>
+    </row>
+    <row r="2884">
+      <c r="A2884" s="1" t="n">
+        <v>2882</v>
+      </c>
+      <c r="B2884" t="inlineStr">
+        <is>
+          <t>[4, -5, -1]</t>
+        </is>
+      </c>
+      <c r="C2884" t="n">
+        <v>14.1467112308497</v>
+      </c>
+    </row>
+    <row r="2885">
+      <c r="A2885" s="1" t="n">
+        <v>2883</v>
+      </c>
+      <c r="B2885" t="inlineStr">
+        <is>
+          <t>[5, -3, -2]</t>
+        </is>
+      </c>
+      <c r="C2885" t="n">
+        <v>14.17154450152409</v>
+      </c>
+    </row>
+    <row r="2886">
+      <c r="A2886" s="1" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B2886" t="inlineStr">
+        <is>
+          <t>[7, -4, -3]</t>
+        </is>
+      </c>
+      <c r="C2886" t="n">
+        <v>14.07516508845798</v>
+      </c>
+    </row>
+    <row r="2887">
+      <c r="A2887" s="1" t="n">
+        <v>2885</v>
+      </c>
+      <c r="B2887" t="inlineStr">
+        <is>
+          <t>[5, -5, -1]</t>
+        </is>
+      </c>
+      <c r="C2887" t="n">
+        <v>14.1260531262655</v>
+      </c>
+    </row>
+    <row r="2888">
+      <c r="A2888" s="1" t="n">
+        <v>2886</v>
+      </c>
+      <c r="B2888" t="inlineStr">
+        <is>
+          <t>[5, -4, -1]</t>
+        </is>
+      </c>
+      <c r="C2888" t="n">
+        <v>14.1664399347892</v>
+      </c>
+    </row>
+    <row r="2889">
+      <c r="A2889" s="1" t="n">
+        <v>2887</v>
+      </c>
+      <c r="B2889" t="inlineStr">
+        <is>
+          <t>[6, -2, -3]</t>
+        </is>
+      </c>
+      <c r="C2889" t="n">
+        <v>14.37154133053892</v>
+      </c>
+    </row>
+    <row r="2890">
+      <c r="A2890" s="1" t="n">
+        <v>2888</v>
+      </c>
+      <c r="B2890" t="inlineStr">
+        <is>
+          <t>[4, -5, 0]</t>
+        </is>
+      </c>
+      <c r="C2890" t="n">
+        <v>14.34138825661904</v>
+      </c>
+    </row>
+    <row r="2891">
+      <c r="A2891" s="1" t="n">
+        <v>2889</v>
+      </c>
+      <c r="B2891" t="inlineStr">
+        <is>
+          <t>[7, -5, -2]</t>
+        </is>
+      </c>
+      <c r="C2891" t="n">
+        <v>14.08510830349518</v>
+      </c>
+    </row>
+    <row r="2892">
+      <c r="A2892" s="1" t="n">
+        <v>2890</v>
+      </c>
+      <c r="B2892" t="inlineStr">
+        <is>
+          <t>[6, 6, 0]</t>
+        </is>
+      </c>
+      <c r="C2892" t="n">
+        <v>14.67113684373621</v>
+      </c>
+    </row>
+    <row r="2893">
+      <c r="A2893" s="1" t="n">
+        <v>2891</v>
+      </c>
+      <c r="B2893" t="inlineStr">
+        <is>
+          <t>[7, -3, -3]</t>
+        </is>
+      </c>
+      <c r="C2893" t="n">
+        <v>13.99449477397382</v>
+      </c>
+    </row>
+    <row r="2894">
+      <c r="A2894" s="1" t="n">
+        <v>2892</v>
+      </c>
+      <c r="B2894" t="inlineStr">
+        <is>
+          <t>[6, -5, -1]</t>
+        </is>
+      </c>
+      <c r="C2894" t="n">
+        <v>14.35772461888925</v>
+      </c>
+    </row>
+    <row r="2895">
+      <c r="A2895" s="1" t="n">
+        <v>2893</v>
+      </c>
+      <c r="B2895" t="inlineStr">
+        <is>
+          <t>[7, -4, -1]</t>
+        </is>
+      </c>
+      <c r="C2895" t="n">
+        <v>14.40713168730245</v>
+      </c>
+    </row>
+    <row r="2896">
+      <c r="A2896" s="1" t="n">
+        <v>2894</v>
+      </c>
+      <c r="B2896" t="inlineStr">
+        <is>
+          <t>[7, -3, -2]</t>
+        </is>
+      </c>
+      <c r="C2896" t="n">
+        <v>14.32945194601035</v>
+      </c>
+    </row>
+    <row r="2897">
+      <c r="A2897" s="1" t="n">
+        <v>2895</v>
+      </c>
+      <c r="B2897" t="inlineStr">
+        <is>
+          <t>[6, -2, -1]</t>
+        </is>
+      </c>
+      <c r="C2897" t="n">
+        <v>14.7280748606399</v>
+      </c>
+    </row>
+    <row r="2898">
+      <c r="A2898" s="1" t="n">
+        <v>2896</v>
+      </c>
+      <c r="B2898" t="inlineStr">
+        <is>
+          <t>[7, -3, -1]</t>
+        </is>
+      </c>
+      <c r="C2898" t="n">
+        <v>14.57424461183106</v>
+      </c>
+    </row>
+    <row r="2899">
+      <c r="A2899" s="1" t="n">
+        <v>2897</v>
+      </c>
+      <c r="B2899" t="inlineStr">
+        <is>
+          <t>[-4, -2, 6]</t>
+        </is>
+      </c>
+      <c r="C2899" t="n">
+        <v>14.03988680802518</v>
+      </c>
+    </row>
+    <row r="2900">
+      <c r="A2900" s="1" t="n">
+        <v>2898</v>
+      </c>
+      <c r="B2900" t="inlineStr">
+        <is>
+          <t>[7, -2, -2]</t>
+        </is>
+      </c>
+      <c r="C2900" t="n">
+        <v>14.05417554402784</v>
+      </c>
+    </row>
+    <row r="2901">
+      <c r="A2901" s="1" t="n">
+        <v>2899</v>
+      </c>
+      <c r="B2901" t="inlineStr">
+        <is>
+          <t>[-5, 3, 1]</t>
+        </is>
+      </c>
+      <c r="C2901" t="n">
+        <v>14.3358342089525</v>
+      </c>
+    </row>
+    <row r="2902">
+      <c r="A2902" s="1" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B2902" t="inlineStr">
+        <is>
+          <t>[-4, -3, 6]</t>
+        </is>
+      </c>
+      <c r="C2902" t="n">
+        <v>13.98859484369413</v>
+      </c>
+    </row>
+    <row r="2903">
+      <c r="A2903" s="1" t="n">
+        <v>2901</v>
+      </c>
+      <c r="B2903" t="inlineStr">
+        <is>
+          <t>[-3, 6, -1]</t>
+        </is>
+      </c>
+      <c r="C2903" t="n">
+        <v>15.02200452029303</v>
+      </c>
+    </row>
+    <row r="2904">
+      <c r="A2904" s="1" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B2904" t="inlineStr">
+        <is>
+          <t>[-2, 5, 0]</t>
+        </is>
+      </c>
+      <c r="C2904" t="n">
+        <v>18.48011301024155</v>
+      </c>
+    </row>
+    <row r="2905">
+      <c r="A2905" s="1" t="n">
+        <v>2903</v>
+      </c>
+      <c r="B2905" t="inlineStr">
+        <is>
+          <t>[-3, 5, 1]</t>
+        </is>
+      </c>
+      <c r="C2905" t="n">
+        <v>15.04966185296795</v>
+      </c>
+    </row>
+    <row r="2906">
+      <c r="A2906" s="1" t="n">
+        <v>2904</v>
+      </c>
+      <c r="B2906" t="inlineStr">
+        <is>
+          <t>[-3, 6, 0]</t>
+        </is>
+      </c>
+      <c r="C2906" t="n">
+        <v>15.87853602752065</v>
+      </c>
+    </row>
+    <row r="2907">
+      <c r="A2907" s="1" t="n">
+        <v>2905</v>
+      </c>
+      <c r="B2907" t="inlineStr">
+        <is>
+          <t>[6, -4, 1]</t>
+        </is>
+      </c>
+      <c r="C2907" t="n">
+        <v>14.36361946400969</v>
+      </c>
+    </row>
+    <row r="2908">
+      <c r="A2908" s="1" t="n">
+        <v>2906</v>
+      </c>
+      <c r="B2908" t="inlineStr">
+        <is>
+          <t>[7, -4, -2]</t>
+        </is>
+      </c>
+      <c r="C2908" t="n">
+        <v>14.16188233004513</v>
+      </c>
+    </row>
+    <row r="2909">
+      <c r="A2909" s="1" t="n">
+        <v>2907</v>
+      </c>
+      <c r="B2909" t="inlineStr">
+        <is>
+          <t>[7, -5, -1]</t>
+        </is>
+      </c>
+      <c r="C2909" t="n">
+        <v>14.33638116795457</v>
+      </c>
+    </row>
+    <row r="2910">
+      <c r="A2910" s="1" t="n">
+        <v>2908</v>
+      </c>
+      <c r="B2910" t="inlineStr">
+        <is>
+          <t>[5, -5, 0]</t>
+        </is>
+      </c>
+      <c r="C2910" t="n">
+        <v>14.10632948336962</v>
+      </c>
+    </row>
+    <row r="2911">
+      <c r="A2911" s="1" t="n">
+        <v>2909</v>
+      </c>
+      <c r="B2911" t="inlineStr">
+        <is>
+          <t>[6, -5, 0]</t>
+        </is>
+      </c>
+      <c r="C2911" t="n">
+        <v>14.66740523860456</v>
+      </c>
+    </row>
+    <row r="2912">
+      <c r="A2912" s="1" t="n">
+        <v>2910</v>
+      </c>
+      <c r="B2912" t="inlineStr">
+        <is>
+          <t>[5, -6, 1]</t>
+        </is>
+      </c>
+      <c r="C2912" t="n">
+        <v>14.08681626834802</v>
+      </c>
+    </row>
+    <row r="2913">
+      <c r="A2913" s="1" t="n">
+        <v>2911</v>
+      </c>
+      <c r="B2913" t="inlineStr">
+        <is>
+          <t>[-2, -4, 7]</t>
+        </is>
+      </c>
+      <c r="C2913" t="n">
+        <v>14.61950719441022</v>
+      </c>
+    </row>
+    <row r="2914">
+      <c r="A2914" s="1" t="n">
+        <v>2912</v>
+      </c>
+      <c r="B2914" t="inlineStr">
+        <is>
+          <t>[7, 4, 1]</t>
+        </is>
+      </c>
+      <c r="C2914" t="n">
+        <v>14.87403651388934</v>
+      </c>
+    </row>
+    <row r="2915">
+      <c r="A2915" s="1" t="n">
+        <v>2913</v>
+      </c>
+      <c r="B2915" t="inlineStr">
+        <is>
+          <t>[7, 3, 0]</t>
+        </is>
+      </c>
+      <c r="C2915" t="n">
+        <v>14.80450291719458</v>
+      </c>
+    </row>
+    <row r="2916">
+      <c r="A2916" s="1" t="n">
+        <v>2914</v>
+      </c>
+      <c r="B2916" t="inlineStr">
+        <is>
+          <t>[7, 5, 0]</t>
+        </is>
+      </c>
+      <c r="C2916" t="n">
+        <v>14.80224424937068</v>
+      </c>
+    </row>
+    <row r="2917">
+      <c r="A2917" s="1" t="n">
+        <v>2915</v>
+      </c>
+      <c r="B2917" t="inlineStr">
+        <is>
+          <t>[7, 4, 0]</t>
+        </is>
+      </c>
+      <c r="C2917" t="n">
+        <v>14.8667839404299</v>
+      </c>
+    </row>
+    <row r="2918">
+      <c r="A2918" s="1" t="n">
+        <v>2916</v>
+      </c>
+      <c r="B2918" t="inlineStr">
+        <is>
+          <t>[7, 1, 0]</t>
+        </is>
+      </c>
+      <c r="C2918" t="n">
+        <v>14.75337825635803</v>
+      </c>
+    </row>
+    <row r="2919">
+      <c r="A2919" s="1" t="n">
+        <v>2917</v>
+      </c>
+      <c r="B2919" t="inlineStr">
+        <is>
+          <t>[6, 4, -1]</t>
+        </is>
+      </c>
+      <c r="C2919" t="n">
+        <v>14.65513047708612</v>
+      </c>
+    </row>
+    <row r="2920">
+      <c r="A2920" s="1" t="n">
+        <v>2918</v>
+      </c>
+      <c r="B2920" t="inlineStr">
+        <is>
+          <t>[7, 4, -1]</t>
+        </is>
+      </c>
+      <c r="C2920" t="n">
+        <v>14.42846118160759</v>
+      </c>
+    </row>
+    <row r="2921">
+      <c r="A2921" s="1" t="n">
+        <v>2919</v>
+      </c>
+      <c r="B2921" t="inlineStr">
+        <is>
+          <t>[6, -1, -3]</t>
+        </is>
+      </c>
+      <c r="C2921" t="n">
+        <v>14.59319297325452</v>
+      </c>
+    </row>
+    <row r="2922">
+      <c r="A2922" s="1" t="n">
+        <v>2920</v>
+      </c>
+      <c r="B2922" t="inlineStr">
+        <is>
+          <t>[7, 3, -1]</t>
+        </is>
+      </c>
+      <c r="C2922" t="n">
+        <v>14.35411352991492</v>
+      </c>
+    </row>
+    <row r="2923">
+      <c r="A2923" s="1" t="n">
+        <v>2921</v>
+      </c>
+      <c r="B2923" t="inlineStr">
+        <is>
+          <t>[6, 6, -1]</t>
+        </is>
+      </c>
+      <c r="C2923" t="n">
+        <v>14.35119955659445</v>
+      </c>
+    </row>
+    <row r="2924">
+      <c r="A2924" s="1" t="n">
+        <v>2922</v>
+      </c>
+      <c r="B2924" t="inlineStr">
+        <is>
+          <t>[-5, -1, 4]</t>
+        </is>
+      </c>
+      <c r="C2924" t="n">
+        <v>14.07170564896237</v>
+      </c>
+    </row>
+    <row r="2925">
+      <c r="A2925" s="1" t="n">
+        <v>2923</v>
+      </c>
+      <c r="B2925" t="inlineStr">
+        <is>
+          <t>[-5, -1, 5]</t>
+        </is>
+      </c>
+      <c r="C2925" t="n">
+        <v>14.07203895783186</v>
+      </c>
+    </row>
+    <row r="2926">
+      <c r="A2926" s="1" t="n">
+        <v>2924</v>
+      </c>
+      <c r="B2926" t="inlineStr">
+        <is>
+          <t>[-5, -1, 6]</t>
+        </is>
+      </c>
+      <c r="C2926" t="n">
+        <v>14.0736130944548</v>
+      </c>
+    </row>
+    <row r="2927">
+      <c r="A2927" s="1" t="n">
+        <v>2925</v>
+      </c>
+      <c r="B2927" t="inlineStr">
+        <is>
+          <t>[6, 1, -1]</t>
+        </is>
+      </c>
+      <c r="C2927" t="n">
+        <v>14.5652174764937</v>
+      </c>
+    </row>
+    <row r="2928">
+      <c r="A2928" s="1" t="n">
+        <v>2926</v>
+      </c>
+      <c r="B2928" t="inlineStr">
+        <is>
+          <t>[7, 3, -2]</t>
+        </is>
+      </c>
+      <c r="C2928" t="n">
+        <v>14.08158525962344</v>
+      </c>
+    </row>
+    <row r="2929">
+      <c r="A2929" s="1" t="n">
+        <v>2927</v>
+      </c>
+      <c r="B2929" t="inlineStr">
+        <is>
+          <t>[5, 4, -3]</t>
+        </is>
+      </c>
+      <c r="C2929" t="n">
+        <v>14.04434061229736</v>
+      </c>
+    </row>
+    <row r="2930">
+      <c r="A2930" s="1" t="n">
+        <v>2928</v>
+      </c>
+      <c r="B2930" t="inlineStr">
+        <is>
+          <t>[7, 7, -1]</t>
+        </is>
+      </c>
+      <c r="C2930" t="n">
+        <v>14.32693469178674</v>
+      </c>
+    </row>
+    <row r="2931">
+      <c r="A2931" s="1" t="n">
+        <v>2929</v>
+      </c>
+      <c r="B2931" t="inlineStr">
+        <is>
+          <t>[6, 7, -1]</t>
+        </is>
+      </c>
+      <c r="C2931" t="n">
+        <v>14.37562758977623</v>
+      </c>
+    </row>
+    <row r="2932">
+      <c r="A2932" s="1" t="n">
+        <v>2930</v>
+      </c>
+      <c r="B2932" t="inlineStr">
+        <is>
+          <t>[5, 7, -2]</t>
+        </is>
+      </c>
+      <c r="C2932" t="n">
+        <v>14.01952878171521</v>
+      </c>
+    </row>
+    <row r="2933">
+      <c r="A2933" s="1" t="n">
+        <v>2931</v>
+      </c>
+      <c r="B2933" t="inlineStr">
+        <is>
+          <t>[4, 7, -2]</t>
+        </is>
+      </c>
+      <c r="C2933" t="n">
+        <v>14.03743089437631</v>
+      </c>
+    </row>
+    <row r="2934">
+      <c r="A2934" s="1" t="n">
+        <v>2932</v>
+      </c>
+      <c r="B2934" t="inlineStr">
+        <is>
+          <t>[7, 6, -2]</t>
+        </is>
+      </c>
+      <c r="C2934" t="n">
+        <v>14.0697551765086</v>
+      </c>
+    </row>
+    <row r="2935">
+      <c r="A2935" s="1" t="n">
+        <v>2933</v>
+      </c>
+      <c r="B2935" t="inlineStr">
+        <is>
+          <t>[6, 6, -2]</t>
+        </is>
+      </c>
+      <c r="C2935" t="n">
+        <v>14.06640746005415</v>
+      </c>
+    </row>
+    <row r="2936">
+      <c r="A2936" s="1" t="n">
+        <v>2934</v>
+      </c>
+      <c r="B2936" t="inlineStr">
+        <is>
+          <t>[7, 0, 0]</t>
+        </is>
+      </c>
+      <c r="C2936" t="n">
+        <v>14.73125241139982</v>
+      </c>
+    </row>
+    <row r="2937">
+      <c r="A2937" s="1" t="n">
+        <v>2935</v>
+      </c>
+      <c r="B2937" t="inlineStr">
+        <is>
+          <t>[7, -2, 7]</t>
+        </is>
+      </c>
+      <c r="C2937" t="n">
+        <v>14.05723684903867</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiments/pg/return_discount_increment/mlp_3x182_no_max_prefix_time_no_clip_grad_step_3e_4_norm_time/oracle_buffer.xlsx
+++ b/experiments/pg/return_discount_increment/mlp_3x182_no_max_prefix_time_no_clip_grad_step_3e_4_norm_time/oracle_buffer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2937"/>
+  <dimension ref="A1:C2938"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38613,6 +38613,19 @@
         <v>14.05723684903867</v>
       </c>
     </row>
+    <row r="2938">
+      <c r="A2938" s="1" t="n">
+        <v>2936</v>
+      </c>
+      <c r="B2938" t="inlineStr">
+        <is>
+          <t>[5, -2, -7]</t>
+        </is>
+      </c>
+      <c r="C2938" t="n">
+        <v>13.98585790195594</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiments/pg/return_discount_increment/mlp_3x182_no_max_prefix_time_no_clip_grad_step_3e_4_norm_time/oracle_buffer.xlsx
+++ b/experiments/pg/return_discount_increment/mlp_3x182_no_max_prefix_time_no_clip_grad_step_3e_4_norm_time/oracle_buffer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2938"/>
+  <dimension ref="A1:C2940"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38626,6 +38626,32 @@
         <v>13.98585790195594</v>
       </c>
     </row>
+    <row r="2939">
+      <c r="A2939" s="1" t="n">
+        <v>2937</v>
+      </c>
+      <c r="B2939" t="inlineStr">
+        <is>
+          <t>[6, -3, 7]</t>
+        </is>
+      </c>
+      <c r="C2939" t="n">
+        <v>14.00999727924964</v>
+      </c>
+    </row>
+    <row r="2940">
+      <c r="A2940" s="1" t="n">
+        <v>2938</v>
+      </c>
+      <c r="B2940" t="inlineStr">
+        <is>
+          <t>[7, -3, 7]</t>
+        </is>
+      </c>
+      <c r="C2940" t="n">
+        <v>13.99627260758518</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
